--- a/Instructions and code/WheelBot_2/Costs.xlsx
+++ b/Instructions and code/WheelBot_2/Costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\TA\AIAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4C9CE7D8-6D72-4F9D-8B30-01E10C46A157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6D6D15A1-0708-4404-823E-698BC155740A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{4B58E710-134C-407B-AB36-0D73C11389BE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Part</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Pack No.</t>
   </si>
   <si>
-    <t>Minimum</t>
-  </si>
-  <si>
     <t>https://www.amazon.co.uk/AZDelivery-Jumper-Arduino-Raspberry-Breadboard/dp/B07KFMSW7H/ref=sr_1_2_sspa?crid=19725KF16NW6E&amp;keywords=jumper+wires+female+to+female&amp;qid=1656959549&amp;sprefix=jumper+wires+female+to+female%2Caps%2C173&amp;sr=8-2-spons&amp;psc=1&amp;smid=A1X7QLRQH87QA3&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWkRJQkJMU0xCVVZWJmVuY3J5cHRlZElkPUEwMzczNDMxT0hZTFRLVDZTQU1IJmVuY3J5cHRlZEFkSWQ9QTAzNDQxNzcxT0FXSVBINDdXMUVaJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
   </si>
   <si>
@@ -157,14 +154,30 @@
   </si>
   <si>
     <t>https://www.amazon.co.uk/Pack-Single-2-54-Header-Connector/dp/B06XR8CV8P/ref=sr_1_12?crid=2JSGMMV5H4YZU&amp;keywords=l+shape+gpio+pins&amp;qid=1656959778&amp;sprefix=l+shape+gpio+pins%2Caps%2C90&amp;sr=8-12</t>
+  </si>
+  <si>
+    <t>MH sensor 10</t>
+  </si>
+  <si>
+    <t>Total estimate</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/DollaTek-Digital-Intensity-Resistor-Photoresistor/dp/B07DJ4CMF7/ref=sr_1_12?crid=LFUTNEIY5FMZ&amp;keywords=mh+photoresistor+light+sensor+module&amp;qid=1656960864&amp;sprefix=mh+photoresistor+light+sensor+module%2Caps%2C352&amp;sr=8-12</t>
+  </si>
+  <si>
+    <t>Min Quantity</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/product/B07RBJN9YF/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -224,7 +237,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,6 +251,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -554,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8869AD-DEB9-4A91-8D35-D3F3B1BDBC77}">
-  <dimension ref="C4:M31"/>
+  <dimension ref="C4:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -566,8 +580,8 @@
     <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.73046875" customWidth="1"/>
-    <col min="7" max="7" width="11.06640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.265625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="11" max="11" width="17.1328125" customWidth="1"/>
     <col min="12" max="12" width="12.796875" customWidth="1"/>
     <col min="13" max="13" width="12.9296875" customWidth="1"/>
@@ -743,10 +757,10 @@
         <v>25</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.45">
@@ -757,21 +771,26 @@
         <f>G5*4</f>
         <v>4</v>
       </c>
+      <c r="E17">
+        <f>E30</f>
+        <v>0.55920000000000003</v>
+      </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>2.2368000000000001</v>
+      </c>
+      <c r="G17" s="8"/>
       <c r="K17" s="6">
-        <f>H31-(E22*G5)+F22</f>
-        <v>1650.8472550000001</v>
+        <f>H32-(E22*G5)+F22</f>
+        <v>1661.1553940000003</v>
       </c>
       <c r="L17" s="6">
         <f>K17*0.2</f>
-        <v>330.16945100000004</v>
+        <v>332.23107880000009</v>
       </c>
       <c r="M17" s="6">
         <f>SUM(K17:L17)</f>
-        <v>1981.0167060000001</v>
+        <v>1993.3864728000003</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.45">
@@ -782,9 +801,13 @@
         <f>G5*4</f>
         <v>4</v>
       </c>
+      <c r="E18">
+        <f>E27</f>
+        <v>9.3200000000000005E-2</v>
+      </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.37280000000000002</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.45">
@@ -807,18 +830,18 @@
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20">
         <v>40</v>
       </c>
       <c r="E20">
         <f>E29</f>
-        <v>4.4949999999999999E-3</v>
+        <v>3.5960000000000002E-3</v>
       </c>
       <c r="F20">
         <f>D20*E20</f>
-        <v>0.17979999999999999</v>
+        <v>0.14384000000000002</v>
       </c>
       <c r="G20" s="8"/>
     </row>
@@ -845,11 +868,11 @@
       </c>
       <c r="E22" s="5">
         <f>SUM(E9:E21)</f>
-        <v>41.892945000000005</v>
+        <v>42.544446000000008</v>
       </c>
       <c r="F22" s="5">
         <f>SUM(F9:F21)</f>
-        <v>42.480200000000004</v>
+        <v>45.053840000000001</v>
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.45">
@@ -866,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>11</v>
@@ -918,11 +941,11 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H30" si="1">D25*G25</f>
+        <f t="shared" ref="H25:H31" si="1">D25*G25</f>
         <v>7.49</v>
       </c>
       <c r="I25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.45">
@@ -952,16 +975,18 @@
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <f>6.99*0.8</f>
+        <v>5.5920000000000005</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <f>D27/F27</f>
+        <v>9.3200000000000005E-2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G27">
         <f>IF(G5&gt;F27,(ROUND(G5/F27,0)+1),1)</f>
@@ -969,7 +994,10 @@
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5.5920000000000005</v>
+      </c>
+      <c r="I27" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.45">
@@ -1001,14 +1029,15 @@
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>8.99</v>
+        <f>8.99*0.8</f>
+        <v>7.1920000000000002</v>
       </c>
       <c r="E29">
-        <f>8.99/F29</f>
-        <v>4.4949999999999999E-3</v>
+        <f>D29/F29</f>
+        <v>3.5960000000000002E-3</v>
       </c>
       <c r="F29">
         <f>40*50</f>
@@ -1020,58 +1049,82 @@
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>8.99</v>
+        <v>7.1920000000000002</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D30">
+        <f>6.99*0.8</f>
+        <v>5.5920000000000005</v>
+      </c>
+      <c r="E30">
+        <f>D30/10</f>
+        <v>0.55920000000000003</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <f>IF(G5&gt;F30,(ROUND(G5/F30,0)+1),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>5.5920000000000005</v>
+      </c>
+      <c r="I30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31">
         <f>(1.05*0.8)*10</f>
         <v>8.4</v>
       </c>
-      <c r="E30">
-        <f>D30/10</f>
+      <c r="E31">
+        <f>D31/10</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>10</v>
       </c>
-      <c r="G30">
-        <f>IF(G5&gt;F30,(ROUND(G5/F30,0)+1),1)</f>
-        <v>1</v>
-      </c>
-      <c r="H30">
+      <c r="G31">
+        <f>IF(G5&gt;F31,(ROUND(G5/F31,0)+1),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="1"/>
         <v>8.4</v>
       </c>
-      <c r="I30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C31" s="4" t="s">
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="5">
-        <f>SUM(D24:D30)</f>
-        <v>1650.2600000000002</v>
-      </c>
-      <c r="E31" s="5">
-        <f>SUM(E24:E30)</f>
-        <v>6.2829449999999998</v>
-      </c>
-      <c r="F31" s="5">
-        <f>SUM(F24:F30)</f>
-        <v>2816</v>
-      </c>
-      <c r="H31" s="5">
-        <f>SUM(H24:H30)</f>
-        <v>1650.2600000000002</v>
+      <c r="D32" s="5">
+        <f>SUM(D24:D31)</f>
+        <v>1658.6460000000004</v>
+      </c>
+      <c r="E32" s="5">
+        <f>SUM(E24:E31)</f>
+        <v>5.9344459999999994</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="H32" s="5">
+        <f>SUM(H24:H31)</f>
+        <v>1658.6460000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Instructions and code/WheelBot_2/Costs.xlsx
+++ b/Instructions and code/WheelBot_2/Costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\TA\AIAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6D6D15A1-0708-4404-823E-698BC155740A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8C5E9037-A36F-43EA-837C-658EA0FC72AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{4B58E710-134C-407B-AB36-0D73C11389BE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>Part</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Robotics HAT</t>
   </si>
   <si>
-    <t>4 batteries</t>
-  </si>
-  <si>
     <t>Screwdriver set</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
     <t>Overall total</t>
   </si>
   <si>
+    <t>Batteries</t>
+  </si>
+  <si>
     <t>https://uk.farnell.com/multicomp-pro/mp000316/battery-holder-aa-snap-on/dp/3126550</t>
   </si>
   <si>
@@ -169,6 +169,39 @@
   </si>
   <si>
     <t>https://www.amazon.co.uk/gp/product/B07RBJN9YF/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/standoffs/2808878</t>
+  </si>
+  <si>
+    <t>M3 screws</t>
+  </si>
+  <si>
+    <t>Standoffs bag 100</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/self-tapping-screws/4831202</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>PiHut</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Screwdriver-Electrical-Precision-Non-Slip-Professional/dp/B07R6SVFSV/ref=sr_1_9?crid=2UWGDCI191K6M&amp;keywords=screwdriver&amp;qid=1656962226&amp;sprefix=screwdriverr%2Caps%2C223&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/AmazonBasics-Pre-Charged-Rechargeable-Batteries-Packaging-Black/dp/B007B9NXAC/ref=sr_1_1_sspa?crid=2RG1JZ4ZDBGJP&amp;keywords=RECHARGABLE+BATTERIES&amp;qid=1656962642&amp;sprefix=rechargable+batterie%2Caps%2C106&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzVkJGTEY1SDZPUldNJmVuY3J5cHRlZElkPUEwMjQ3ODcyM0hGM1hXMkc0NjZGRiZlbmNyeXB0ZWRBZElkPUEwMDQ5NDY4QVcyODJKRFRPMVFYJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
   </si>
 </sst>
 </file>
@@ -203,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +255,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -237,21 +294,25 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -568,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8869AD-DEB9-4A91-8D35-D3F3B1BDBC77}">
-  <dimension ref="C4:M32"/>
+  <dimension ref="C4:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -587,17 +648,17 @@
     <col min="13" max="13" width="12.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.45">
       <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -606,24 +667,27 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="O8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>5</v>
       </c>
@@ -638,11 +702,14 @@
         <f>D9*E9</f>
         <v>23.7</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="O9" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -654,78 +721,97 @@
         <v>13.75</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F21" si="0">D10*E10</f>
+        <f t="shared" ref="F10:F22" si="0">D10*E10</f>
         <v>13.75</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="O10" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <f>G5*1</f>
         <v>1</v>
       </c>
       <c r="E11">
-        <f>E28</f>
+        <f>E29</f>
         <v>0.80800000000000005</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0.80800000000000005</v>
       </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="G11" s="6"/>
+      <c r="O11" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <f>G5*1</f>
-        <v>1</v>
+        <f>G5*4</f>
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f>E35</f>
+        <v>0.60799999999999998</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
+        <v>2.4319999999999999</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="O12" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <f>G5*1</f>
-        <v>1</v>
+        <f>ROUNDUP(G5*0.2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f>E34</f>
+        <v>0.81066666666666676</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
+        <v>0.81066666666666676</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <f>G5*1</f>
         <v>1</v>
       </c>
       <c r="E14">
-        <f>E24</f>
+        <f>E25</f>
         <v>3.2759999999999998</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>3.2759999999999998</v>
       </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <f>G5*1</f>
@@ -736,395 +822,523 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <f>G5*1</f>
         <v>1</v>
       </c>
       <c r="E16">
-        <f>E26</f>
+        <f>E27</f>
         <v>0.317</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0.317</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="K16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="4" t="s">
+      <c r="G16" s="6"/>
+      <c r="K16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <f>G5*4</f>
         <v>4</v>
       </c>
       <c r="E17">
-        <f>E30</f>
+        <f>E31</f>
         <v>0.55920000000000003</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>2.2368000000000001</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="K17" s="6">
-        <f>H32-(E22*G5)+F22</f>
-        <v>1661.1553940000003</v>
-      </c>
-      <c r="L17" s="6">
+      <c r="G17" s="6"/>
+      <c r="K17" s="5">
+        <f>H37-(E23*G5)+F23</f>
+        <v>1700.2973940000004</v>
+      </c>
+      <c r="L17" s="5">
         <f>K17*0.2</f>
-        <v>332.23107880000009</v>
-      </c>
-      <c r="M17" s="6">
+        <v>340.05947880000008</v>
+      </c>
+      <c r="M17" s="5">
         <f>SUM(K17:L17)</f>
-        <v>1993.3864728000003</v>
+        <v>2040.3568728000005</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <f>G5*4</f>
         <v>4</v>
       </c>
       <c r="E18">
-        <f>E27</f>
+        <f>E28</f>
         <v>9.3200000000000005E-2</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0.37280000000000002</v>
       </c>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <f>G5*(3*(D17/G5))</f>
         <v>12</v>
       </c>
       <c r="E19">
-        <f>E25</f>
+        <f>E26</f>
         <v>3.7449999999999997E-2</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0.44939999999999997</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <f>12*G5</f>
+        <v>12</v>
       </c>
       <c r="E20">
-        <f>E29</f>
-        <v>3.5960000000000002E-3</v>
+        <f>E33</f>
+        <v>0.21</v>
       </c>
       <c r="F20">
-        <f>D20*E20</f>
-        <v>0.14384000000000002</v>
-      </c>
-      <c r="G20" s="8"/>
+        <f t="shared" si="0"/>
+        <v>2.52</v>
+      </c>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <f>G5*1</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <f>E30</f>
+        <v>3.5960000000000002E-3</v>
       </c>
       <c r="F21">
+        <f>D21*E21</f>
+        <v>0.14384000000000002</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <f>G5*6</f>
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <f>E36</f>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22">
-        <f>SUM(D9:D21)</f>
-        <v>69</v>
-      </c>
-      <c r="E22" s="5">
-        <f>SUM(E9:E21)</f>
-        <v>42.544446000000008</v>
-      </c>
-      <c r="F22" s="5">
-        <f>SUM(F9:F21)</f>
-        <v>45.053840000000001</v>
-      </c>
+        <v>1.056</v>
+      </c>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D9:D22)</f>
+        <v>89</v>
+      </c>
+      <c r="E23" s="4">
+        <f>SUM(E9:E22)</f>
+        <v>44.349112666666677</v>
+      </c>
+      <c r="F23" s="4">
+        <f>SUM(F9:F22)</f>
+        <v>51.872506666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="E24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="H24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1572.48</v>
-      </c>
-      <c r="E24">
-        <v>3.2759999999999998</v>
-      </c>
-      <c r="F24">
-        <v>480</v>
-      </c>
-      <c r="G24">
-        <f>IF(G5&gt;F24,(ROUND(G5/F24,0)+1),1)</f>
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <f>D24*G24</f>
-        <v>1572.48</v>
-      </c>
-      <c r="I24" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25">
-        <v>7.49</v>
+        <v>14</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1572.48</v>
       </c>
       <c r="E25">
-        <v>3.7449999999999997E-2</v>
+        <v>3.2759999999999998</v>
       </c>
       <c r="F25">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="G25">
         <f>IF(G5&gt;F25,(ROUND(G5/F25,0)+1),1)</f>
         <v>1</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H31" si="1">D25*G25</f>
-        <v>7.49</v>
-      </c>
-      <c r="I25" t="s">
-        <v>33</v>
+        <f>D25*G25</f>
+        <v>1572.48</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>31.7</v>
+        <v>7.49</v>
       </c>
       <c r="E26">
-        <v>0.317</v>
+        <v>3.7449999999999997E-2</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G26">
         <f>IF(G5&gt;F26,(ROUND(G5/F26,0)+1),1)</f>
         <v>1</v>
       </c>
       <c r="H26">
+        <f t="shared" ref="H26:H36" si="1">D26*G26</f>
+        <v>7.49</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>31.7</v>
+      </c>
+      <c r="E27">
+        <v>0.317</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <f>IF(G5&gt;F27,(ROUND(G5/F27,0)+1),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="1"/>
         <v>31.7</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I27" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C27" t="s">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
         <v>36</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <f>6.99*0.8</f>
         <v>5.5920000000000005</v>
       </c>
-      <c r="E27">
-        <f>D27/F27</f>
+      <c r="E28">
+        <f>D28/F28</f>
         <v>9.3200000000000005E-2</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>60</v>
       </c>
-      <c r="G27">
-        <f>IF(G5&gt;F27,(ROUND(G5/F27,0)+1),1)</f>
-        <v>1</v>
-      </c>
-      <c r="H27">
+      <c r="G28">
+        <f>IF(G5&gt;F28,(ROUND(G5/F28,0)+1),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="1"/>
         <v>5.5920000000000005</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I28" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
         <v>31</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <f>1.01*0.8*25</f>
         <v>20.200000000000003</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <f>1.01*0.8</f>
         <v>0.80800000000000005</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>25</v>
       </c>
-      <c r="G28">
-        <f>IF(G5&gt;F28,(ROUND(G5/F28,0)+1),1)</f>
-        <v>1</v>
-      </c>
-      <c r="H28">
+      <c r="G29">
+        <f>IF(G5&gt;F29,(ROUND(G5/F29,0)+1),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="1"/>
         <v>20.200000000000003</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
         <v>34</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <f>8.99*0.8</f>
         <v>7.1920000000000002</v>
       </c>
-      <c r="E29">
-        <f>D29/F29</f>
+      <c r="E30">
+        <f>D30/F30</f>
         <v>3.5960000000000002E-3</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <f>40*50</f>
         <v>2000</v>
       </c>
-      <c r="G29">
-        <f>IF(G5&gt;F29,(ROUND(G5/F29,0)+1),1)</f>
-        <v>1</v>
-      </c>
-      <c r="H29">
+      <c r="G30">
+        <f>IF(G5&gt;F30,(ROUND(G5/F30,0)+1),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="1"/>
         <v>7.1920000000000002</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I30" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
         <v>40</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <f>6.99*0.8</f>
         <v>5.5920000000000005</v>
       </c>
-      <c r="E30">
-        <f>D30/10</f>
+      <c r="E31">
+        <f>D31/10</f>
         <v>0.55920000000000003</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>10</v>
       </c>
-      <c r="G30">
-        <f>IF(G5&gt;F30,(ROUND(G5/F30,0)+1),1)</f>
-        <v>1</v>
-      </c>
-      <c r="H30">
+      <c r="G31">
+        <f>IF(G5&gt;F31,(ROUND(G5/F31,0)+1),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="1"/>
         <v>5.5920000000000005</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I31" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C31" t="s">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
         <v>35</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <f>(1.05*0.8)*10</f>
         <v>8.4</v>
       </c>
-      <c r="E31">
-        <f>D31/10</f>
+      <c r="E32">
+        <f>D32/10</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>10</v>
       </c>
-      <c r="G31">
-        <f>IF(G5&gt;F31,(ROUND(G5/F31,0)+1),1)</f>
-        <v>1</v>
-      </c>
-      <c r="H31">
+      <c r="G32">
+        <f>IF(G5&gt;F32,(ROUND(G5/F32,0)+1),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="1"/>
         <v>8.4</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I32" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="5">
-        <f>SUM(D24:D31)</f>
-        <v>1658.6460000000004</v>
-      </c>
-      <c r="E32" s="5">
-        <f>SUM(E24:E31)</f>
-        <v>5.9344459999999994</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="H32" s="5">
-        <f>SUM(H24:H31)</f>
-        <v>1658.6460000000004</v>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33">
+        <v>3.42</v>
+      </c>
+      <c r="E33">
+        <v>0.21</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <f>IF(G5&gt;F33,(ROUND(G5/F33,0)+1),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>3.42</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <f>3.04*0.8</f>
+        <v>2.4320000000000004</v>
+      </c>
+      <c r="E34">
+        <f>D34/F34</f>
+        <v>0.81066666666666676</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <f>IF(G5&gt;F34,(ROUND(G5/F34,0)+1),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>2.4320000000000004</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <f>9.12*0.8</f>
+        <v>7.2959999999999994</v>
+      </c>
+      <c r="E35">
+        <f>D35/12</f>
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <f>IF(G5&gt;F35,(ROUND(G5/F35,0)+1),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>7.2959999999999994</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36">
+        <v>20.98</v>
+      </c>
+      <c r="E36">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <f>IF(G5&gt;F36,(ROUND(G5/F36,0)+1),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>20.98</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="4">
+        <f>SUM(D25:D36)</f>
+        <v>1692.7740000000006</v>
+      </c>
+      <c r="E37" s="4">
+        <f>SUM(E25:E36)</f>
+        <v>7.7391126666666663</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="H37" s="4">
+        <f>SUM(H25:H36)</f>
+        <v>1692.7740000000006</v>
       </c>
     </row>
   </sheetData>
